--- a/Code/SampleRun_Environment_Wind/600Scens/600_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Wind/600Scens/600_Naive_CI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Wind\600Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07A93B2-B5B3-4103-8D41-A841B1814FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882B7954-241A-4B95-B068-678758DA9C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
@@ -2584,11 +2584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Q8"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2613,7 +2613,7 @@
         <v>5</v>
       </c>
       <c r="L1" s="1">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">

--- a/Code/SampleRun_Environment_Wind/600Scens/600_Naive_CI.xlsx
+++ b/Code/SampleRun_Environment_Wind/600Scens/600_Naive_CI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\A_Uni\HiWi\ArticleSubgradient\Code\SampleRun_Environment_Wind\600Scens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882B7954-241A-4B95-B068-678758DA9C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCD272B-9E5A-41F9-B8E3-BB447168285E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Instance</t>
   </si>
@@ -82,6 +82,9 @@
   <si>
     <t>Time:</t>
   </si>
+  <si>
+    <t>0.05 t-distribution 95% CI intervals</t>
+  </si>
 </sst>
 </file>
 
@@ -124,11 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2588,7 +2592,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2612,8 +2616,8 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1">
-        <v>0.05</v>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -2679,12 +2683,12 @@
         <v>10</v>
       </c>
       <c r="P3">
-        <f>M2+(-1.96)*M6/(SQRT(20))</f>
-        <v>4593.8389959159331</v>
+        <f>M2+(-H6)*M6/(SQRT(20))</f>
+        <v>4588.526394465388</v>
       </c>
       <c r="Q3">
-        <f>M2+1.96*M6/(SQRT(20))</f>
-        <v>4750.3926190840675</v>
+        <f>M2+H6*M6/(SQRT(20))</f>
+        <v>4755.7052205346126</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -2717,12 +2721,12 @@
         <v>12</v>
       </c>
       <c r="P4">
-        <f>M3-1.96*M7/(SQRT(20))</f>
-        <v>0.62172336233204206</v>
+        <f>M3-H6*M7/(SQRT(20))</f>
+        <v>0.62132563821368358</v>
       </c>
       <c r="Q4">
-        <f>M3+1.96*M7/(SQRT(20))</f>
-        <v>0.63344363766795808</v>
+        <f>M3+H6*M7/(SQRT(20))</f>
+        <v>0.63384136178631656</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -2751,11 +2755,11 @@
         <v>14</v>
       </c>
       <c r="P5">
-        <f>M4-1.96*M8/(SQRT(20))</f>
+        <f>M4-H7*M8/(SQRT(20))</f>
         <v>4201</v>
       </c>
       <c r="Q5">
-        <f>M4+1.96*M8/(SQRT(20))</f>
+        <f>M4+H7*M8/(SQRT(20))</f>
         <v>4201</v>
       </c>
     </row>
@@ -2778,6 +2782,13 @@
       <c r="F6">
         <v>4201</v>
       </c>
+      <c r="H6">
+        <f>_xlfn.T.INV(0.975,19)</f>
+        <v>2.0930240544083087</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.95</v>
+      </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
@@ -2804,6 +2815,13 @@
       </c>
       <c r="F7">
         <v>4201</v>
+      </c>
+      <c r="H7">
+        <f>_xlfn.T.INV(0.9875,19)</f>
+        <v>2.4334402113749714</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.97499999999999998</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
